--- a/biology/Zoologie/Catopsilia_pomona/Catopsilia_pomona.xlsx
+++ b/biology/Zoologie/Catopsilia_pomona/Catopsilia_pomona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catopsilia pomona  est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Catopsilia.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Catopsilia pomona  (Johan Christian Fabricius, 1775)
 Synonyme : Catopsilia crocale
@@ -521,10 +535,7 @@
 Catopsilia pomona pomona f. crocale
 Catopsilia pomona pomona f. jugurtha
 Catopsilia pomona pomona f. hilaria 
-Catopsilia pomona pomona f. nivescens [1]
-Noms vernaculaires
-Catopsilia pomona  se nomme en anglais Common Emigrant (émigrant commun) ou Lemon Emigrant (émigrant citron)[1].
-</t>
+Catopsilia pomona pomona f. nivescens </t>
         </is>
       </c>
     </row>
@@ -549,13 +560,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catopsilia pomona  se nomme en anglais Common Emigrant (émigrant commun) ou Lemon Emigrant (émigrant citron).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catopsilia_pomona</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pomona</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon d'une couleur uniforme mais diverse pouvant aller du jaune au jaune pâle presque blanc ou au vert jaune. La femelle, plus claire possède une fine bordure des antérieures et un point foncé. Le revers est de la même couleur unie avec un point discoidal blanc bordé de rose aux postérieures.
-Chenille
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Catopsilia_pomona</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pomona</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			œuf
 			chenille
 			chrysalide
@@ -563,72 +649,181 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Catopsilia_pomona</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Catopsilia_pomona</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Catopsilia_pomona</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pomona</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il n'a pas de diapause[2].
-C'est un migrateur qui suit en particulier les berges des rivières[2].
-Plantes hôtes
-Ses plantes hôtes sont de la famille des Cassia, Cassia siamea, Cassia occidentalis, Cassia fistula, Cassia surattensis, Cassia tora, Cassia coronilloides, Cassia pleurocarpa) et Sesbania roxburghii et Butea frondosa[1].
-Parasitisme</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Catopsilia_pomona</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Catopsilia_pomona</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'a pas de diapause.
+C'est un migrateur qui suit en particulier les berges des rivières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Catopsilia_pomona</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pomona</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont de la famille des Cassia, Cassia siamea, Cassia occidentalis, Cassia fistula, Cassia surattensis, Cassia tora, Cassia coronilloides, Cassia pleurocarpa) et Sesbania roxburghii et Butea frondosa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Catopsilia_pomona</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pomona</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Asie du Sud-Est, (Ceylan, Inde, Malaisie), Nouvelle-Guinée, Australie et Nouvelle-Calédonie[1],[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Asie du Sud-Est, (Ceylan, Inde, Malaisie), Nouvelle-Guinée, Australie et Nouvelle-Calédonie,.
 Aux Moluques et aux Salomon sont présentes deux formes de deux formes de la sous-espèce Catopsilia pomona pomona : Catopsilia pomona pomona f. pomona et Catopsilia pomona pomona f. crocale.
-Biotope
-Il occupe des milieux très divers[2]
-Protection
-Cette espèce n'a pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Catopsilia_pomona</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pomona</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il occupe des milieux très divers
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Catopsilia_pomona</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pomona</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce n'a pas de statut de protection particulier.
 </t>
         </is>
       </c>
